--- a/TestCases/ToBeAutomated/StorageContainer.xlsx
+++ b/TestCases/ToBeAutomated/StorageContainer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Storage_container_add_Admin</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>DateOfAutomation</t>
+  </si>
+  <si>
+    <t>Closed_Site_Error_Handling</t>
+  </si>
+  <si>
+    <t>Error_Handling_Disabling_Parent_Container</t>
+  </si>
+  <si>
+    <t>TOBEDELTED_Add different Can Hold -Container Type</t>
+  </si>
+  <si>
+    <t>TOBEDELTEDAdd_Storage_Container_MtpleCP/StgeTyp/Sp</t>
+  </si>
+  <si>
+    <t>Container_Type_Validation</t>
+  </si>
+  <si>
+    <t>Storage_Container_Edit_Error</t>
+  </si>
+  <si>
+    <t>Reducing_Storage_Capacity_Error_Handling</t>
+  </si>
+  <si>
+    <t>TOBEDELTED_Add_Storage_Container_MtpleCP/StgeTyp/S</t>
+  </si>
+  <si>
+    <t>Storage_Container_Add_error</t>
+  </si>
+  <si>
+    <t>Storage_Container_Add_Success</t>
+  </si>
+  <si>
+    <t>Storage_Container_Edit_error</t>
   </si>
 </sst>
 </file>
@@ -439,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15"/>
@@ -461,7 +494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -485,7 +518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -493,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -501,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -509,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -517,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="45">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -525,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -533,7 +566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -541,7 +574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -549,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -573,7 +606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60">
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -581,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="90">
+    <row r="17" spans="1:2" ht="30">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -589,7 +622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="105">
+    <row r="18" spans="1:2" ht="30">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -597,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="105">
+    <row r="19" spans="1:2" ht="30">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -627,6 +660,70 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
